--- a/xlsx/IEEE754DecimalConverter.xlsx
+++ b/xlsx/IEEE754DecimalConverter.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="137" documentId="8_{BC5CD8AD-2BC1-415B-A15B-64CFD9826777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6226B419-6679-4CD1-A495-EF48A9305684}"/>
+  <xr:revisionPtr revIDLastSave="153" documentId="8_{BC5CD8AD-2BC1-415B-A15B-64CFD9826777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84131B25-4D1A-4EF0-B7BB-81EB5228C598}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{509E0A89-44BD-40A0-A49B-86934A99F9AD}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11265" xr2:uid="{509E0A89-44BD-40A0-A49B-86934A99F9AD}"/>
   </bookViews>
   <sheets>
     <sheet name="IEEE 754 Converter" sheetId="1" r:id="rId1"/>
@@ -65,19 +65,7 @@
     <t>Exponent → Decimal</t>
   </si>
   <si>
-    <t>Decimal → IEE 754</t>
-  </si>
-  <si>
-    <t>IEE 754 → Decimal</t>
-  </si>
-  <si>
     <t>Verification</t>
-  </si>
-  <si>
-    <t>Decimal -&gt; IEE 754</t>
-  </si>
-  <si>
-    <t>IEE 754 -&gt; Decimal</t>
   </si>
   <si>
     <t>0x3FF0000000000000</t>
@@ -128,6 +116,18 @@
       </rPr>
       <t>(compatible with older version, Step-by-step approach)</t>
     </r>
+  </si>
+  <si>
+    <t>Decimal → IEEE 754</t>
+  </si>
+  <si>
+    <t>IEEE 754 → Decimal</t>
+  </si>
+  <si>
+    <t>Decimal -&gt; IEEE 754</t>
+  </si>
+  <si>
+    <t>IEEE 754 -&gt; Decimal</t>
   </si>
 </sst>
 </file>
@@ -863,27 +863,27 @@
     <filterColumn colId="13" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{25F736AD-E8D9-4A45-81DA-4D2F24AB21A3}" name="Decimal → IEE 754" dataDxfId="13" dataCellStyle="Input"/>
+    <tableColumn id="1" xr3:uid="{25F736AD-E8D9-4A45-81DA-4D2F24AB21A3}" name="Decimal → IEEE 754" dataDxfId="13" dataCellStyle="Input"/>
     <tableColumn id="2" xr3:uid="{BC13132B-D41C-487B-8D55-66248F7D7E30}" name="Exponent 1st Round" dataDxfId="12" dataCellStyle="Note">
-      <calculatedColumnFormula>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",INT(LOG(ABS(tabIEEE754[[#This Row],[Decimal → IEE 754]]),2)))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",INT(LOG(ABS(tabIEEE754[[#This Row],[Decimal → IEEE 754]]),2)))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{D973DC5B-CA41-47BB-B24C-6655071A50B6}" name="Exponent 2nd Round" dataDxfId="11" dataCellStyle="Note">
-      <calculatedColumnFormula>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",tabIEEE754[[#This Row],[Exponent 1st Round]]-(((ABS(A3)/(2^tabIEEE754[[#This Row],[Exponent 1st Round]])-1)*(2^52))&lt;0))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",tabIEEE754[[#This Row],[Exponent 1st Round]]-(((ABS(A3)/(2^tabIEEE754[[#This Row],[Exponent 1st Round]])-1)*(2^52))&lt;0))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{FC748E56-7FD6-4952-80B5-DD67D6973AF4}" name="Mantissa" dataDxfId="10" dataCellStyle="Note">
-      <calculatedColumnFormula>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",ABS(tabIEEE754[[#This Row],[Decimal → IEE 754]])/(2^tabIEEE754[[#This Row],[Exponent 2nd Round]]))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",ABS(tabIEEE754[[#This Row],[Decimal → IEEE 754]])/(2^tabIEEE754[[#This Row],[Exponent 2nd Round]]))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{2AAA397D-EBA8-40AF-AB5D-C61EB2A1ED46}" name="Mantissa → Decimal" dataDxfId="9" dataCellStyle="Note">
-      <calculatedColumnFormula>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",(tabIEEE754[[#This Row],[Mantissa]]-1)*(2^52))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",(tabIEEE754[[#This Row],[Mantissa]]-1)*(2^52))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{9E08D86B-11E4-4955-8584-0A6632643D04}" name="Sign &amp; Exponent → Hex" dataDxfId="8" dataCellStyle="Note">
-      <calculatedColumnFormula>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",DEC2HEX(1023+tabIEEE754[[#This Row],[Exponent 2nd Round]]+(2^11)*(tabIEEE754[[#This Row],[Decimal → IEE 754]]&lt;0),3))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",DEC2HEX(1023+tabIEEE754[[#This Row],[Exponent 2nd Round]]+(2^11)*(tabIEEE754[[#This Row],[Decimal → IEEE 754]]&lt;0),3))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{F4D68014-E553-4DBF-B134-709AFB5150FB}" name="Mantissa → Decimal → Hex" dataDxfId="7" dataCellStyle="Note">
-      <calculatedColumnFormula>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",DEC2HEX(tabIEEE754[[#This Row],[Mantissa → Decimal]]/2^32,5)&amp;DEC2HEX(MOD(tabIEEE754[[#This Row],[Mantissa → Decimal]],2^32),8))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",DEC2HEX(tabIEEE754[[#This Row],[Mantissa → Decimal]]/2^32,5)&amp;DEC2HEX(MOD(tabIEEE754[[#This Row],[Mantissa → Decimal]],2^32),8))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{C03E5936-DF5C-4643-A1A6-DE4A769B87C1}" name="IEE754 64 bits Double" dataDxfId="6" dataCellStyle="Output">
-      <calculatedColumnFormula>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]=0,"0x0000000000000000","0x"&amp;tabIEEE754[[#This Row],[Sign &amp; Exponent → Hex]]&amp;tabIEEE754[[#This Row],[Mantissa → Decimal → Hex]])</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]=0,"0x0000000000000000","0x"&amp;tabIEEE754[[#This Row],[Sign &amp; Exponent → Hex]]&amp;tabIEEE754[[#This Row],[Mantissa → Decimal → Hex]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="15" xr3:uid="{AE5CC81A-7477-43F0-A3D8-75131B5C2C2B}" name="Sign" dataDxfId="5" dataCellStyle="Note">
       <calculatedColumnFormula>IF(HEX2DEC(MID(tabIEEE754[[#This Row],[IEE754 64 bits Double]],3,3))-2^11&lt;0,1,-1)</calculatedColumnFormula>
@@ -897,11 +897,11 @@
     <tableColumn id="11" xr3:uid="{EEDD764E-C10D-4370-BA27-3ABA253E55EE}" name="Mantissa Right" dataDxfId="2" dataCellStyle="Note">
       <calculatedColumnFormula>HEX2DEC(MID(tabIEEE754[[#This Row],[IEE754 64 bits Double]],14,8))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{808CEA0B-2D08-44C4-A268-9062FE604980}" name="IEE 754 → Decimal" dataDxfId="1" dataCellStyle="Output">
+    <tableColumn id="16" xr3:uid="{808CEA0B-2D08-44C4-A268-9062FE604980}" name="IEEE 754 → Decimal" dataDxfId="1" dataCellStyle="Output">
       <calculatedColumnFormula>tabIEEE754[[#This Row],[Sign]]*2^tabIEEE754[[#This Row],[Exponent → Decimal]]*(1+tabIEEE754[[#This Row],[Mantissa Left]]/2^32+tabIEEE754[[#This Row],[Mantissa Right]]/2^52)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="17" xr3:uid="{8D45791B-12F7-4D00-893F-6EBD9FD8C42D}" name="Verification" dataDxfId="0" dataCellStyle="60% - Accent2">
-      <calculatedColumnFormula>tabIEEE754[[#This Row],[IEE 754 → Decimal]]=tabIEEE754[[#This Row],[Decimal → IEE 754]]</calculatedColumnFormula>
+      <calculatedColumnFormula>tabIEEE754[[#This Row],[IEEE 754 → Decimal]]=tabIEEE754[[#This Row],[Decimal → IEEE 754]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
@@ -1207,7 +1207,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{217B8A89-CEFF-4A45-B096-52F554F010DE}">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1233,15 +1235,15 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="P1" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -1277,22 +1279,22 @@
         <v>8</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q2" s="21" t="s">
-        <v>17</v>
-      </c>
       <c r="R2" s="21" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="S2" s="22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -1300,31 +1302,31 @@
         <v>22222.0948199999</v>
       </c>
       <c r="B3" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",INT(LOG(ABS(tabIEEE754[[#This Row],[Decimal → IEE 754]]),2)))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",INT(LOG(ABS(tabIEEE754[[#This Row],[Decimal → IEEE 754]]),2)))</f>
         <v>14</v>
       </c>
       <c r="C3" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",tabIEEE754[[#This Row],[Exponent 1st Round]]-(((ABS(A3)/(2^tabIEEE754[[#This Row],[Exponent 1st Round]])-1)*(2^52))&lt;0))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",tabIEEE754[[#This Row],[Exponent 1st Round]]-(((ABS(A3)/(2^tabIEEE754[[#This Row],[Exponent 1st Round]])-1)*(2^52))&lt;0))</f>
         <v>14</v>
       </c>
       <c r="D3" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",ABS(tabIEEE754[[#This Row],[Decimal → IEE 754]])/(2^tabIEEE754[[#This Row],[Exponent 2nd Round]]))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",ABS(tabIEEE754[[#This Row],[Decimal → IEEE 754]])/(2^tabIEEE754[[#This Row],[Exponent 2nd Round]]))</f>
         <v>1.3563290295410095</v>
       </c>
       <c r="E3" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",(tabIEEE754[[#This Row],[Mantissa]]-1)*(2^52))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",(tabIEEE754[[#This Row],[Mantissa]]-1)*(2^52))</f>
         <v>1604763284662181</v>
       </c>
       <c r="F3" s="3" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",DEC2HEX(1023+tabIEEE754[[#This Row],[Exponent 2nd Round]]+(2^11)*(tabIEEE754[[#This Row],[Decimal → IEE 754]]&lt;0),3))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",DEC2HEX(1023+tabIEEE754[[#This Row],[Exponent 2nd Round]]+(2^11)*(tabIEEE754[[#This Row],[Decimal → IEEE 754]]&lt;0),3))</f>
         <v>40D</v>
       </c>
       <c r="G3" s="3" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",DEC2HEX(tabIEEE754[[#This Row],[Mantissa → Decimal]]/2^32,5)&amp;DEC2HEX(MOD(tabIEEE754[[#This Row],[Mantissa → Decimal]],2^32),8))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",DEC2HEX(tabIEEE754[[#This Row],[Mantissa → Decimal]]/2^32,5)&amp;DEC2HEX(MOD(tabIEEE754[[#This Row],[Mantissa → Decimal]],2^32),8))</f>
         <v>5B3861187E7A5</v>
       </c>
       <c r="H3" s="28" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]=0,"0x0000000000000000","0x"&amp;tabIEEE754[[#This Row],[Sign &amp; Exponent → Hex]]&amp;tabIEEE754[[#This Row],[Mantissa → Decimal → Hex]])</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]=0,"0x0000000000000000","0x"&amp;tabIEEE754[[#This Row],[Sign &amp; Exponent → Hex]]&amp;tabIEEE754[[#This Row],[Mantissa → Decimal → Hex]])</f>
         <v>0x40D5B3861187E7A5</v>
       </c>
       <c r="I3" s="6">
@@ -1348,11 +1350,11 @@
         <v>22222.0948199999</v>
       </c>
       <c r="N3" s="18" t="b">
-        <f>tabIEEE754[[#This Row],[IEE 754 → Decimal]]=tabIEEE754[[#This Row],[Decimal → IEE 754]]</f>
+        <f>tabIEEE754[[#This Row],[IEEE 754 → Decimal]]=tabIEEE754[[#This Row],[Decimal → IEEE 754]]</f>
         <v>1</v>
       </c>
       <c r="P3" s="27" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="Q3" s="24">
         <v>1</v>
@@ -1379,31 +1381,31 @@
         <v>22222.094819999998</v>
       </c>
       <c r="B4" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",INT(LOG(ABS(tabIEEE754[[#This Row],[Decimal → IEE 754]]),2)))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",INT(LOG(ABS(tabIEEE754[[#This Row],[Decimal → IEEE 754]]),2)))</f>
         <v>14</v>
       </c>
       <c r="C4" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",tabIEEE754[[#This Row],[Exponent 1st Round]]-(((ABS(A4)/(2^tabIEEE754[[#This Row],[Exponent 1st Round]])-1)*(2^52))&lt;0))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",tabIEEE754[[#This Row],[Exponent 1st Round]]-(((ABS(A4)/(2^tabIEEE754[[#This Row],[Exponent 1st Round]])-1)*(2^52))&lt;0))</f>
         <v>14</v>
       </c>
       <c r="D4" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",ABS(tabIEEE754[[#This Row],[Decimal → IEE 754]])/(2^tabIEEE754[[#This Row],[Exponent 2nd Round]]))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",ABS(tabIEEE754[[#This Row],[Decimal → IEEE 754]])/(2^tabIEEE754[[#This Row],[Exponent 2nd Round]]))</f>
         <v>1.3563290295410155</v>
       </c>
       <c r="E4" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",(tabIEEE754[[#This Row],[Mantissa]]-1)*(2^52))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",(tabIEEE754[[#This Row],[Mantissa]]-1)*(2^52))</f>
         <v>1604763284662208</v>
       </c>
       <c r="F4" s="3" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",DEC2HEX(1023+tabIEEE754[[#This Row],[Exponent 2nd Round]]+(2^11)*(tabIEEE754[[#This Row],[Decimal → IEE 754]]&lt;0),3))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",DEC2HEX(1023+tabIEEE754[[#This Row],[Exponent 2nd Round]]+(2^11)*(tabIEEE754[[#This Row],[Decimal → IEEE 754]]&lt;0),3))</f>
         <v>40D</v>
       </c>
       <c r="G4" s="3" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",DEC2HEX(tabIEEE754[[#This Row],[Mantissa → Decimal]]/2^32,5)&amp;DEC2HEX(MOD(tabIEEE754[[#This Row],[Mantissa → Decimal]],2^32),8))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",DEC2HEX(tabIEEE754[[#This Row],[Mantissa → Decimal]]/2^32,5)&amp;DEC2HEX(MOD(tabIEEE754[[#This Row],[Mantissa → Decimal]],2^32),8))</f>
         <v>5B3861187E7C0</v>
       </c>
       <c r="H4" s="28" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]=0,"0x0000000000000000","0x"&amp;tabIEEE754[[#This Row],[Sign &amp; Exponent → Hex]]&amp;tabIEEE754[[#This Row],[Mantissa → Decimal → Hex]])</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]=0,"0x0000000000000000","0x"&amp;tabIEEE754[[#This Row],[Sign &amp; Exponent → Hex]]&amp;tabIEEE754[[#This Row],[Mantissa → Decimal → Hex]])</f>
         <v>0x40D5B3861187E7C0</v>
       </c>
       <c r="I4" s="6">
@@ -1427,14 +1429,14 @@
         <v>22222.094819999998</v>
       </c>
       <c r="N4" s="18" t="b">
-        <f>tabIEEE754[[#This Row],[IEE 754 → Decimal]]=tabIEEE754[[#This Row],[Decimal → IEE 754]]</f>
+        <f>tabIEEE754[[#This Row],[IEEE 754 → Decimal]]=tabIEEE754[[#This Row],[Decimal → IEEE 754]]</f>
         <v>1</v>
       </c>
       <c r="P4" s="27" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Q4" s="23" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="R4" s="25">
         <f>_xlfn.LET(_xlpm.x,Q4,
@@ -1459,31 +1461,31 @@
         <v>22222.094819999907</v>
       </c>
       <c r="B5" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",INT(LOG(ABS(tabIEEE754[[#This Row],[Decimal → IEE 754]]),2)))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",INT(LOG(ABS(tabIEEE754[[#This Row],[Decimal → IEEE 754]]),2)))</f>
         <v>14</v>
       </c>
       <c r="C5" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",tabIEEE754[[#This Row],[Exponent 1st Round]]-(((ABS(A5)/(2^tabIEEE754[[#This Row],[Exponent 1st Round]])-1)*(2^52))&lt;0))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",tabIEEE754[[#This Row],[Exponent 1st Round]]-(((ABS(A5)/(2^tabIEEE754[[#This Row],[Exponent 1st Round]])-1)*(2^52))&lt;0))</f>
         <v>14</v>
       </c>
       <c r="D5" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",ABS(tabIEEE754[[#This Row],[Decimal → IEE 754]])/(2^tabIEEE754[[#This Row],[Exponent 2nd Round]]))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",ABS(tabIEEE754[[#This Row],[Decimal → IEEE 754]])/(2^tabIEEE754[[#This Row],[Exponent 2nd Round]]))</f>
         <v>1.35632902954101</v>
       </c>
       <c r="E5" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",(tabIEEE754[[#This Row],[Mantissa]]-1)*(2^52))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",(tabIEEE754[[#This Row],[Mantissa]]-1)*(2^52))</f>
         <v>1604763284662183</v>
       </c>
       <c r="F5" s="3" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",DEC2HEX(1023+tabIEEE754[[#This Row],[Exponent 2nd Round]]+(2^11)*(tabIEEE754[[#This Row],[Decimal → IEE 754]]&lt;0),3))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",DEC2HEX(1023+tabIEEE754[[#This Row],[Exponent 2nd Round]]+(2^11)*(tabIEEE754[[#This Row],[Decimal → IEEE 754]]&lt;0),3))</f>
         <v>40D</v>
       </c>
       <c r="G5" s="3" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",DEC2HEX(tabIEEE754[[#This Row],[Mantissa → Decimal]]/2^32,5)&amp;DEC2HEX(MOD(tabIEEE754[[#This Row],[Mantissa → Decimal]],2^32),8))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",DEC2HEX(tabIEEE754[[#This Row],[Mantissa → Decimal]]/2^32,5)&amp;DEC2HEX(MOD(tabIEEE754[[#This Row],[Mantissa → Decimal]],2^32),8))</f>
         <v>5B3861187E7A7</v>
       </c>
       <c r="H5" s="28" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]=0,"0x0000000000000000","0x"&amp;tabIEEE754[[#This Row],[Sign &amp; Exponent → Hex]]&amp;tabIEEE754[[#This Row],[Mantissa → Decimal → Hex]])</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]=0,"0x0000000000000000","0x"&amp;tabIEEE754[[#This Row],[Sign &amp; Exponent → Hex]]&amp;tabIEEE754[[#This Row],[Mantissa → Decimal → Hex]])</f>
         <v>0x40D5B3861187E7A7</v>
       </c>
       <c r="I5" s="6">
@@ -1507,7 +1509,7 @@
         <v>22222.094819999907</v>
       </c>
       <c r="N5" s="18" t="b">
-        <f>tabIEEE754[[#This Row],[IEE 754 → Decimal]]=tabIEEE754[[#This Row],[Decimal → IEE 754]]</f>
+        <f>tabIEEE754[[#This Row],[IEEE 754 → Decimal]]=tabIEEE754[[#This Row],[Decimal → IEEE 754]]</f>
         <v>1</v>
       </c>
     </row>
@@ -1516,31 +1518,31 @@
         <v>1.2345600000000001E-4</v>
       </c>
       <c r="B6" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",INT(LOG(ABS(tabIEEE754[[#This Row],[Decimal → IEE 754]]),2)))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",INT(LOG(ABS(tabIEEE754[[#This Row],[Decimal → IEEE 754]]),2)))</f>
         <v>-13</v>
       </c>
       <c r="C6" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",tabIEEE754[[#This Row],[Exponent 1st Round]]-(((ABS(A6)/(2^tabIEEE754[[#This Row],[Exponent 1st Round]])-1)*(2^52))&lt;0))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",tabIEEE754[[#This Row],[Exponent 1st Round]]-(((ABS(A6)/(2^tabIEEE754[[#This Row],[Exponent 1st Round]])-1)*(2^52))&lt;0))</f>
         <v>-13</v>
       </c>
       <c r="D6" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",ABS(tabIEEE754[[#This Row],[Decimal → IEE 754]])/(2^tabIEEE754[[#This Row],[Exponent 2nd Round]]))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",ABS(tabIEEE754[[#This Row],[Decimal → IEEE 754]])/(2^tabIEEE754[[#This Row],[Exponent 2nd Round]]))</f>
         <v>1.011351552</v>
       </c>
       <c r="E6" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",(tabIEEE754[[#This Row],[Mantissa]]-1)*(2^52))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",(tabIEEE754[[#This Row],[Mantissa]]-1)*(2^52))</f>
         <v>51122845357277</v>
       </c>
       <c r="F6" s="3" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",DEC2HEX(1023+tabIEEE754[[#This Row],[Exponent 2nd Round]]+(2^11)*(tabIEEE754[[#This Row],[Decimal → IEE 754]]&lt;0),3))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",DEC2HEX(1023+tabIEEE754[[#This Row],[Exponent 2nd Round]]+(2^11)*(tabIEEE754[[#This Row],[Decimal → IEEE 754]]&lt;0),3))</f>
         <v>3F2</v>
       </c>
       <c r="G6" s="3" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",DEC2HEX(tabIEEE754[[#This Row],[Mantissa → Decimal]]/2^32,5)&amp;DEC2HEX(MOD(tabIEEE754[[#This Row],[Mantissa → Decimal]],2^32),8))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",DEC2HEX(tabIEEE754[[#This Row],[Mantissa → Decimal]]/2^32,5)&amp;DEC2HEX(MOD(tabIEEE754[[#This Row],[Mantissa → Decimal]],2^32),8))</f>
         <v>02E7EF70994DD</v>
       </c>
       <c r="H6" s="28" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]=0,"0x0000000000000000","0x"&amp;tabIEEE754[[#This Row],[Sign &amp; Exponent → Hex]]&amp;tabIEEE754[[#This Row],[Mantissa → Decimal → Hex]])</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]=0,"0x0000000000000000","0x"&amp;tabIEEE754[[#This Row],[Sign &amp; Exponent → Hex]]&amp;tabIEEE754[[#This Row],[Mantissa → Decimal → Hex]])</f>
         <v>0x3F202E7EF70994DD</v>
       </c>
       <c r="I6" s="6">
@@ -1564,7 +1566,7 @@
         <v>1.2345600000000001E-4</v>
       </c>
       <c r="N6" s="18" t="b">
-        <f>tabIEEE754[[#This Row],[IEE 754 → Decimal]]=tabIEEE754[[#This Row],[Decimal → IEE 754]]</f>
+        <f>tabIEEE754[[#This Row],[IEEE 754 → Decimal]]=tabIEEE754[[#This Row],[Decimal → IEEE 754]]</f>
         <v>1</v>
       </c>
     </row>
@@ -1573,31 +1575,31 @@
         <v>9.9999999999999901E+307</v>
       </c>
       <c r="B7" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",INT(LOG(ABS(tabIEEE754[[#This Row],[Decimal → IEE 754]]),2)))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",INT(LOG(ABS(tabIEEE754[[#This Row],[Decimal → IEEE 754]]),2)))</f>
         <v>1023</v>
       </c>
       <c r="C7" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",tabIEEE754[[#This Row],[Exponent 1st Round]]-(((ABS(A7)/(2^tabIEEE754[[#This Row],[Exponent 1st Round]])-1)*(2^52))&lt;0))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",tabIEEE754[[#This Row],[Exponent 1st Round]]-(((ABS(A7)/(2^tabIEEE754[[#This Row],[Exponent 1st Round]])-1)*(2^52))&lt;0))</f>
         <v>1023</v>
       </c>
       <c r="D7" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",ABS(tabIEEE754[[#This Row],[Decimal → IEE 754]])/(2^tabIEEE754[[#This Row],[Exponent 2nd Round]]))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",ABS(tabIEEE754[[#This Row],[Decimal → IEEE 754]])/(2^tabIEEE754[[#This Row],[Exponent 2nd Round]]))</f>
         <v>1.1125369292535996</v>
       </c>
       <c r="E7" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",(tabIEEE754[[#This Row],[Mantissa]]-1)*(2^52))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",(tabIEEE754[[#This Row],[Mantissa]]-1)*(2^52))</f>
         <v>506821272651931</v>
       </c>
       <c r="F7" s="3" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",DEC2HEX(1023+tabIEEE754[[#This Row],[Exponent 2nd Round]]+(2^11)*(tabIEEE754[[#This Row],[Decimal → IEE 754]]&lt;0),3))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",DEC2HEX(1023+tabIEEE754[[#This Row],[Exponent 2nd Round]]+(2^11)*(tabIEEE754[[#This Row],[Decimal → IEEE 754]]&lt;0),3))</f>
         <v>7FE</v>
       </c>
       <c r="G7" s="3" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",DEC2HEX(tabIEEE754[[#This Row],[Mantissa → Decimal]]/2^32,5)&amp;DEC2HEX(MOD(tabIEEE754[[#This Row],[Mantissa → Decimal]],2^32),8))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",DEC2HEX(tabIEEE754[[#This Row],[Mantissa → Decimal]]/2^32,5)&amp;DEC2HEX(MOD(tabIEEE754[[#This Row],[Mantissa → Decimal]],2^32),8))</f>
         <v>1CCF385EBC89B</v>
       </c>
       <c r="H7" s="28" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]=0,"0x0000000000000000","0x"&amp;tabIEEE754[[#This Row],[Sign &amp; Exponent → Hex]]&amp;tabIEEE754[[#This Row],[Mantissa → Decimal → Hex]])</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]=0,"0x0000000000000000","0x"&amp;tabIEEE754[[#This Row],[Sign &amp; Exponent → Hex]]&amp;tabIEEE754[[#This Row],[Mantissa → Decimal → Hex]])</f>
         <v>0x7FE1CCF385EBC89B</v>
       </c>
       <c r="I7" s="6">
@@ -1621,7 +1623,7 @@
         <v>9.9999999999999901E+307</v>
       </c>
       <c r="N7" s="18" t="b">
-        <f>tabIEEE754[[#This Row],[IEE 754 → Decimal]]=tabIEEE754[[#This Row],[Decimal → IEE 754]]</f>
+        <f>tabIEEE754[[#This Row],[IEEE 754 → Decimal]]=tabIEEE754[[#This Row],[Decimal → IEEE 754]]</f>
         <v>1</v>
       </c>
     </row>
@@ -1630,31 +1632,31 @@
         <v>-35.299999999999997</v>
       </c>
       <c r="B8" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",INT(LOG(ABS(tabIEEE754[[#This Row],[Decimal → IEE 754]]),2)))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",INT(LOG(ABS(tabIEEE754[[#This Row],[Decimal → IEEE 754]]),2)))</f>
         <v>5</v>
       </c>
       <c r="C8" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",tabIEEE754[[#This Row],[Exponent 1st Round]]-(((ABS(A8)/(2^tabIEEE754[[#This Row],[Exponent 1st Round]])-1)*(2^52))&lt;0))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",tabIEEE754[[#This Row],[Exponent 1st Round]]-(((ABS(A8)/(2^tabIEEE754[[#This Row],[Exponent 1st Round]])-1)*(2^52))&lt;0))</f>
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",ABS(tabIEEE754[[#This Row],[Decimal → IEE 754]])/(2^tabIEEE754[[#This Row],[Exponent 2nd Round]]))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",ABS(tabIEEE754[[#This Row],[Decimal → IEEE 754]])/(2^tabIEEE754[[#This Row],[Exponent 2nd Round]]))</f>
         <v>1.1031249999999999</v>
       </c>
       <c r="E8" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",(tabIEEE754[[#This Row],[Mantissa]]-1)*(2^52))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",(tabIEEE754[[#This Row],[Mantissa]]-1)*(2^52))</f>
         <v>464433711572582</v>
       </c>
       <c r="F8" s="3" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",DEC2HEX(1023+tabIEEE754[[#This Row],[Exponent 2nd Round]]+(2^11)*(tabIEEE754[[#This Row],[Decimal → IEE 754]]&lt;0),3))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",DEC2HEX(1023+tabIEEE754[[#This Row],[Exponent 2nd Round]]+(2^11)*(tabIEEE754[[#This Row],[Decimal → IEEE 754]]&lt;0),3))</f>
         <v>C04</v>
       </c>
       <c r="G8" s="3" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",DEC2HEX(tabIEEE754[[#This Row],[Mantissa → Decimal]]/2^32,5)&amp;DEC2HEX(MOD(tabIEEE754[[#This Row],[Mantissa → Decimal]],2^32),8))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",DEC2HEX(tabIEEE754[[#This Row],[Mantissa → Decimal]]/2^32,5)&amp;DEC2HEX(MOD(tabIEEE754[[#This Row],[Mantissa → Decimal]],2^32),8))</f>
         <v>1A66666666666</v>
       </c>
       <c r="H8" s="28" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]=0,"0x0000000000000000","0x"&amp;tabIEEE754[[#This Row],[Sign &amp; Exponent → Hex]]&amp;tabIEEE754[[#This Row],[Mantissa → Decimal → Hex]])</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]=0,"0x0000000000000000","0x"&amp;tabIEEE754[[#This Row],[Sign &amp; Exponent → Hex]]&amp;tabIEEE754[[#This Row],[Mantissa → Decimal → Hex]])</f>
         <v>0xC041A66666666666</v>
       </c>
       <c r="I8" s="6">
@@ -1678,7 +1680,7 @@
         <v>-35.299999999999997</v>
       </c>
       <c r="N8" s="18" t="b">
-        <f>tabIEEE754[[#This Row],[IEE 754 → Decimal]]=tabIEEE754[[#This Row],[Decimal → IEE 754]]</f>
+        <f>tabIEEE754[[#This Row],[IEEE 754 → Decimal]]=tabIEEE754[[#This Row],[Decimal → IEEE 754]]</f>
         <v>1</v>
       </c>
     </row>
@@ -1687,31 +1689,31 @@
         <v>1</v>
       </c>
       <c r="B9" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",INT(LOG(ABS(tabIEEE754[[#This Row],[Decimal → IEE 754]]),2)))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",INT(LOG(ABS(tabIEEE754[[#This Row],[Decimal → IEEE 754]]),2)))</f>
         <v>0</v>
       </c>
       <c r="C9" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",tabIEEE754[[#This Row],[Exponent 1st Round]]-(((ABS(A9)/(2^tabIEEE754[[#This Row],[Exponent 1st Round]])-1)*(2^52))&lt;0))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",tabIEEE754[[#This Row],[Exponent 1st Round]]-(((ABS(A9)/(2^tabIEEE754[[#This Row],[Exponent 1st Round]])-1)*(2^52))&lt;0))</f>
         <v>0</v>
       </c>
       <c r="D9" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",ABS(tabIEEE754[[#This Row],[Decimal → IEE 754]])/(2^tabIEEE754[[#This Row],[Exponent 2nd Round]]))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",ABS(tabIEEE754[[#This Row],[Decimal → IEEE 754]])/(2^tabIEEE754[[#This Row],[Exponent 2nd Round]]))</f>
         <v>1</v>
       </c>
       <c r="E9" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",(tabIEEE754[[#This Row],[Mantissa]]-1)*(2^52))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",(tabIEEE754[[#This Row],[Mantissa]]-1)*(2^52))</f>
         <v>0</v>
       </c>
       <c r="F9" s="3" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",DEC2HEX(1023+tabIEEE754[[#This Row],[Exponent 2nd Round]]+(2^11)*(tabIEEE754[[#This Row],[Decimal → IEE 754]]&lt;0),3))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",DEC2HEX(1023+tabIEEE754[[#This Row],[Exponent 2nd Round]]+(2^11)*(tabIEEE754[[#This Row],[Decimal → IEEE 754]]&lt;0),3))</f>
         <v>3FF</v>
       </c>
       <c r="G9" s="3" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",DEC2HEX(tabIEEE754[[#This Row],[Mantissa → Decimal]]/2^32,5)&amp;DEC2HEX(MOD(tabIEEE754[[#This Row],[Mantissa → Decimal]],2^32),8))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",DEC2HEX(tabIEEE754[[#This Row],[Mantissa → Decimal]]/2^32,5)&amp;DEC2HEX(MOD(tabIEEE754[[#This Row],[Mantissa → Decimal]],2^32),8))</f>
         <v>0000000000000</v>
       </c>
       <c r="H9" s="28" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]=0,"0x0000000000000000","0x"&amp;tabIEEE754[[#This Row],[Sign &amp; Exponent → Hex]]&amp;tabIEEE754[[#This Row],[Mantissa → Decimal → Hex]])</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]=0,"0x0000000000000000","0x"&amp;tabIEEE754[[#This Row],[Sign &amp; Exponent → Hex]]&amp;tabIEEE754[[#This Row],[Mantissa → Decimal → Hex]])</f>
         <v>0x3FF0000000000000</v>
       </c>
       <c r="I9" s="6">
@@ -1735,7 +1737,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="18" t="b">
-        <f>tabIEEE754[[#This Row],[IEE 754 → Decimal]]=tabIEEE754[[#This Row],[Decimal → IEE 754]]</f>
+        <f>tabIEEE754[[#This Row],[IEEE 754 → Decimal]]=tabIEEE754[[#This Row],[Decimal → IEEE 754]]</f>
         <v>1</v>
       </c>
     </row>
@@ -1744,31 +1746,31 @@
         <v>3.9999999999999898</v>
       </c>
       <c r="B10" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",INT(LOG(ABS(tabIEEE754[[#This Row],[Decimal → IEE 754]]),2)))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",INT(LOG(ABS(tabIEEE754[[#This Row],[Decimal → IEEE 754]]),2)))</f>
         <v>2</v>
       </c>
       <c r="C10" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",tabIEEE754[[#This Row],[Exponent 1st Round]]-(((ABS(A10)/(2^tabIEEE754[[#This Row],[Exponent 1st Round]])-1)*(2^52))&lt;0))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",tabIEEE754[[#This Row],[Exponent 1st Round]]-(((ABS(A10)/(2^tabIEEE754[[#This Row],[Exponent 1st Round]])-1)*(2^52))&lt;0))</f>
         <v>1</v>
       </c>
       <c r="D10" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",ABS(tabIEEE754[[#This Row],[Decimal → IEE 754]])/(2^tabIEEE754[[#This Row],[Exponent 2nd Round]]))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",ABS(tabIEEE754[[#This Row],[Decimal → IEEE 754]])/(2^tabIEEE754[[#This Row],[Exponent 2nd Round]]))</f>
         <v>1.9999999999999949</v>
       </c>
       <c r="E10" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",(tabIEEE754[[#This Row],[Mantissa]]-1)*(2^52))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",(tabIEEE754[[#This Row],[Mantissa]]-1)*(2^52))</f>
         <v>4503599627370473</v>
       </c>
       <c r="F10" s="3" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",DEC2HEX(1023+tabIEEE754[[#This Row],[Exponent 2nd Round]]+(2^11)*(tabIEEE754[[#This Row],[Decimal → IEE 754]]&lt;0),3))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",DEC2HEX(1023+tabIEEE754[[#This Row],[Exponent 2nd Round]]+(2^11)*(tabIEEE754[[#This Row],[Decimal → IEEE 754]]&lt;0),3))</f>
         <v>400</v>
       </c>
       <c r="G10" s="3" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",DEC2HEX(tabIEEE754[[#This Row],[Mantissa → Decimal]]/2^32,5)&amp;DEC2HEX(MOD(tabIEEE754[[#This Row],[Mantissa → Decimal]],2^32),8))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",DEC2HEX(tabIEEE754[[#This Row],[Mantissa → Decimal]]/2^32,5)&amp;DEC2HEX(MOD(tabIEEE754[[#This Row],[Mantissa → Decimal]],2^32),8))</f>
         <v>FFFFFFFFFFFE9</v>
       </c>
       <c r="H10" s="28" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]=0,"0x0000000000000000","0x"&amp;tabIEEE754[[#This Row],[Sign &amp; Exponent → Hex]]&amp;tabIEEE754[[#This Row],[Mantissa → Decimal → Hex]])</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]=0,"0x0000000000000000","0x"&amp;tabIEEE754[[#This Row],[Sign &amp; Exponent → Hex]]&amp;tabIEEE754[[#This Row],[Mantissa → Decimal → Hex]])</f>
         <v>0x400FFFFFFFFFFFE9</v>
       </c>
       <c r="I10" s="6">
@@ -1792,7 +1794,7 @@
         <v>3.9999999999999898</v>
       </c>
       <c r="N10" s="18" t="b">
-        <f>tabIEEE754[[#This Row],[IEE 754 → Decimal]]=tabIEEE754[[#This Row],[Decimal → IEE 754]]</f>
+        <f>tabIEEE754[[#This Row],[IEEE 754 → Decimal]]=tabIEEE754[[#This Row],[Decimal → IEEE 754]]</f>
         <v>1</v>
       </c>
     </row>
@@ -1802,31 +1804,31 @@
         <v>255.99999999999989</v>
       </c>
       <c r="B11" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",INT(LOG(ABS(tabIEEE754[[#This Row],[Decimal → IEE 754]]),2)))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",INT(LOG(ABS(tabIEEE754[[#This Row],[Decimal → IEEE 754]]),2)))</f>
         <v>8</v>
       </c>
       <c r="C11" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",tabIEEE754[[#This Row],[Exponent 1st Round]]-(((ABS(A11)/(2^tabIEEE754[[#This Row],[Exponent 1st Round]])-1)*(2^52))&lt;0))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",tabIEEE754[[#This Row],[Exponent 1st Round]]-(((ABS(A11)/(2^tabIEEE754[[#This Row],[Exponent 1st Round]])-1)*(2^52))&lt;0))</f>
         <v>7</v>
       </c>
       <c r="D11" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",ABS(tabIEEE754[[#This Row],[Decimal → IEE 754]])/(2^tabIEEE754[[#This Row],[Exponent 2nd Round]]))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",ABS(tabIEEE754[[#This Row],[Decimal → IEEE 754]])/(2^tabIEEE754[[#This Row],[Exponent 2nd Round]]))</f>
         <v>1.9999999999999991</v>
       </c>
       <c r="E11" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",(tabIEEE754[[#This Row],[Mantissa]]-1)*(2^52))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",(tabIEEE754[[#This Row],[Mantissa]]-1)*(2^52))</f>
         <v>4503599627370492</v>
       </c>
       <c r="F11" s="3" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",DEC2HEX(1023+tabIEEE754[[#This Row],[Exponent 2nd Round]]+(2^11)*(tabIEEE754[[#This Row],[Decimal → IEE 754]]&lt;0),3))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",DEC2HEX(1023+tabIEEE754[[#This Row],[Exponent 2nd Round]]+(2^11)*(tabIEEE754[[#This Row],[Decimal → IEEE 754]]&lt;0),3))</f>
         <v>406</v>
       </c>
       <c r="G11" s="3" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",DEC2HEX(tabIEEE754[[#This Row],[Mantissa → Decimal]]/2^32,5)&amp;DEC2HEX(MOD(tabIEEE754[[#This Row],[Mantissa → Decimal]],2^32),8))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",DEC2HEX(tabIEEE754[[#This Row],[Mantissa → Decimal]]/2^32,5)&amp;DEC2HEX(MOD(tabIEEE754[[#This Row],[Mantissa → Decimal]],2^32),8))</f>
         <v>FFFFFFFFFFFFC</v>
       </c>
       <c r="H11" s="28" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]=0,"0x0000000000000000","0x"&amp;tabIEEE754[[#This Row],[Sign &amp; Exponent → Hex]]&amp;tabIEEE754[[#This Row],[Mantissa → Decimal → Hex]])</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]=0,"0x0000000000000000","0x"&amp;tabIEEE754[[#This Row],[Sign &amp; Exponent → Hex]]&amp;tabIEEE754[[#This Row],[Mantissa → Decimal → Hex]])</f>
         <v>0x406FFFFFFFFFFFFC</v>
       </c>
       <c r="I11" s="6">
@@ -1850,7 +1852,7 @@
         <v>255.99999999999989</v>
       </c>
       <c r="N11" s="18" t="b">
-        <f>tabIEEE754[[#This Row],[IEE 754 → Decimal]]=tabIEEE754[[#This Row],[Decimal → IEE 754]]</f>
+        <f>tabIEEE754[[#This Row],[IEEE 754 → Decimal]]=tabIEEE754[[#This Row],[Decimal → IEEE 754]]</f>
         <v>1</v>
       </c>
     </row>
@@ -1859,31 +1861,31 @@
         <v>256</v>
       </c>
       <c r="B12" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",INT(LOG(ABS(tabIEEE754[[#This Row],[Decimal → IEE 754]]),2)))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",INT(LOG(ABS(tabIEEE754[[#This Row],[Decimal → IEEE 754]]),2)))</f>
         <v>8</v>
       </c>
       <c r="C12" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",tabIEEE754[[#This Row],[Exponent 1st Round]]-(((ABS(A12)/(2^tabIEEE754[[#This Row],[Exponent 1st Round]])-1)*(2^52))&lt;0))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",tabIEEE754[[#This Row],[Exponent 1st Round]]-(((ABS(A12)/(2^tabIEEE754[[#This Row],[Exponent 1st Round]])-1)*(2^52))&lt;0))</f>
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",ABS(tabIEEE754[[#This Row],[Decimal → IEE 754]])/(2^tabIEEE754[[#This Row],[Exponent 2nd Round]]))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",ABS(tabIEEE754[[#This Row],[Decimal → IEEE 754]])/(2^tabIEEE754[[#This Row],[Exponent 2nd Round]]))</f>
         <v>1</v>
       </c>
       <c r="E12" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",(tabIEEE754[[#This Row],[Mantissa]]-1)*(2^52))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",(tabIEEE754[[#This Row],[Mantissa]]-1)*(2^52))</f>
         <v>0</v>
       </c>
       <c r="F12" s="3" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",DEC2HEX(1023+tabIEEE754[[#This Row],[Exponent 2nd Round]]+(2^11)*(tabIEEE754[[#This Row],[Decimal → IEE 754]]&lt;0),3))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",DEC2HEX(1023+tabIEEE754[[#This Row],[Exponent 2nd Round]]+(2^11)*(tabIEEE754[[#This Row],[Decimal → IEEE 754]]&lt;0),3))</f>
         <v>407</v>
       </c>
       <c r="G12" s="3" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",DEC2HEX(tabIEEE754[[#This Row],[Mantissa → Decimal]]/2^32,5)&amp;DEC2HEX(MOD(tabIEEE754[[#This Row],[Mantissa → Decimal]],2^32),8))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",DEC2HEX(tabIEEE754[[#This Row],[Mantissa → Decimal]]/2^32,5)&amp;DEC2HEX(MOD(tabIEEE754[[#This Row],[Mantissa → Decimal]],2^32),8))</f>
         <v>0000000000000</v>
       </c>
       <c r="H12" s="28" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]=0,"0x0000000000000000","0x"&amp;tabIEEE754[[#This Row],[Sign &amp; Exponent → Hex]]&amp;tabIEEE754[[#This Row],[Mantissa → Decimal → Hex]])</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]=0,"0x0000000000000000","0x"&amp;tabIEEE754[[#This Row],[Sign &amp; Exponent → Hex]]&amp;tabIEEE754[[#This Row],[Mantissa → Decimal → Hex]])</f>
         <v>0x4070000000000000</v>
       </c>
       <c r="I12" s="6">
@@ -1907,7 +1909,7 @@
         <v>256</v>
       </c>
       <c r="N12" s="18" t="b">
-        <f>tabIEEE754[[#This Row],[IEE 754 → Decimal]]=tabIEEE754[[#This Row],[Decimal → IEE 754]]</f>
+        <f>tabIEEE754[[#This Row],[IEEE 754 → Decimal]]=tabIEEE754[[#This Row],[Decimal → IEEE 754]]</f>
         <v>1</v>
       </c>
     </row>
@@ -1917,31 +1919,31 @@
         <v>0.99999999999989997</v>
       </c>
       <c r="B13" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",INT(LOG(ABS(tabIEEE754[[#This Row],[Decimal → IEE 754]]),2)))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",INT(LOG(ABS(tabIEEE754[[#This Row],[Decimal → IEEE 754]]),2)))</f>
         <v>-1</v>
       </c>
       <c r="C13" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",tabIEEE754[[#This Row],[Exponent 1st Round]]-(((ABS(A13)/(2^tabIEEE754[[#This Row],[Exponent 1st Round]])-1)*(2^52))&lt;0))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",tabIEEE754[[#This Row],[Exponent 1st Round]]-(((ABS(A13)/(2^tabIEEE754[[#This Row],[Exponent 1st Round]])-1)*(2^52))&lt;0))</f>
         <v>-1</v>
       </c>
       <c r="D13" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",ABS(tabIEEE754[[#This Row],[Decimal → IEE 754]])/(2^tabIEEE754[[#This Row],[Exponent 2nd Round]]))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",ABS(tabIEEE754[[#This Row],[Decimal → IEEE 754]])/(2^tabIEEE754[[#This Row],[Exponent 2nd Round]]))</f>
         <v>1.9999999999997999</v>
       </c>
       <c r="E13" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",(tabIEEE754[[#This Row],[Mantissa]]-1)*(2^52))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",(tabIEEE754[[#This Row],[Mantissa]]-1)*(2^52))</f>
         <v>4503599627369595</v>
       </c>
       <c r="F13" s="3" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",DEC2HEX(1023+tabIEEE754[[#This Row],[Exponent 2nd Round]]+(2^11)*(tabIEEE754[[#This Row],[Decimal → IEE 754]]&lt;0),3))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",DEC2HEX(1023+tabIEEE754[[#This Row],[Exponent 2nd Round]]+(2^11)*(tabIEEE754[[#This Row],[Decimal → IEEE 754]]&lt;0),3))</f>
         <v>3FE</v>
       </c>
       <c r="G13" s="3" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",DEC2HEX(tabIEEE754[[#This Row],[Mantissa → Decimal]]/2^32,5)&amp;DEC2HEX(MOD(tabIEEE754[[#This Row],[Mantissa → Decimal]],2^32),8))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",DEC2HEX(tabIEEE754[[#This Row],[Mantissa → Decimal]]/2^32,5)&amp;DEC2HEX(MOD(tabIEEE754[[#This Row],[Mantissa → Decimal]],2^32),8))</f>
         <v>FFFFFFFFFFC7B</v>
       </c>
       <c r="H13" s="28" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]=0,"0x0000000000000000","0x"&amp;tabIEEE754[[#This Row],[Sign &amp; Exponent → Hex]]&amp;tabIEEE754[[#This Row],[Mantissa → Decimal → Hex]])</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]=0,"0x0000000000000000","0x"&amp;tabIEEE754[[#This Row],[Sign &amp; Exponent → Hex]]&amp;tabIEEE754[[#This Row],[Mantissa → Decimal → Hex]])</f>
         <v>0x3FEFFFFFFFFFFC7B</v>
       </c>
       <c r="I13" s="6">
@@ -1965,7 +1967,7 @@
         <v>0.99999999999989997</v>
       </c>
       <c r="N13" s="18" t="b">
-        <f>tabIEEE754[[#This Row],[IEE 754 → Decimal]]=tabIEEE754[[#This Row],[Decimal → IEE 754]]</f>
+        <f>tabIEEE754[[#This Row],[IEEE 754 → Decimal]]=tabIEEE754[[#This Row],[Decimal → IEEE 754]]</f>
         <v>1</v>
       </c>
     </row>
@@ -1975,31 +1977,31 @@
         <v>1023.9999999999999</v>
       </c>
       <c r="B14" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",INT(LOG(ABS(tabIEEE754[[#This Row],[Decimal → IEE 754]]),2)))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",INT(LOG(ABS(tabIEEE754[[#This Row],[Decimal → IEEE 754]]),2)))</f>
         <v>10</v>
       </c>
       <c r="C14" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",tabIEEE754[[#This Row],[Exponent 1st Round]]-(((ABS(A14)/(2^tabIEEE754[[#This Row],[Exponent 1st Round]])-1)*(2^52))&lt;0))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",tabIEEE754[[#This Row],[Exponent 1st Round]]-(((ABS(A14)/(2^tabIEEE754[[#This Row],[Exponent 1st Round]])-1)*(2^52))&lt;0))</f>
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",ABS(tabIEEE754[[#This Row],[Decimal → IEE 754]])/(2^tabIEEE754[[#This Row],[Exponent 2nd Round]]))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",ABS(tabIEEE754[[#This Row],[Decimal → IEEE 754]])/(2^tabIEEE754[[#This Row],[Exponent 2nd Round]]))</f>
         <v>1.9999999999999998</v>
       </c>
       <c r="E14" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",(tabIEEE754[[#This Row],[Mantissa]]-1)*(2^52))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",(tabIEEE754[[#This Row],[Mantissa]]-1)*(2^52))</f>
         <v>4503599627370495</v>
       </c>
       <c r="F14" s="3" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",DEC2HEX(1023+tabIEEE754[[#This Row],[Exponent 2nd Round]]+(2^11)*(tabIEEE754[[#This Row],[Decimal → IEE 754]]&lt;0),3))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",DEC2HEX(1023+tabIEEE754[[#This Row],[Exponent 2nd Round]]+(2^11)*(tabIEEE754[[#This Row],[Decimal → IEEE 754]]&lt;0),3))</f>
         <v>408</v>
       </c>
       <c r="G14" s="3" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",DEC2HEX(tabIEEE754[[#This Row],[Mantissa → Decimal]]/2^32,5)&amp;DEC2HEX(MOD(tabIEEE754[[#This Row],[Mantissa → Decimal]],2^32),8))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",DEC2HEX(tabIEEE754[[#This Row],[Mantissa → Decimal]]/2^32,5)&amp;DEC2HEX(MOD(tabIEEE754[[#This Row],[Mantissa → Decimal]],2^32),8))</f>
         <v>FFFFFFFFFFFFF</v>
       </c>
       <c r="H14" s="28" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]=0,"0x0000000000000000","0x"&amp;tabIEEE754[[#This Row],[Sign &amp; Exponent → Hex]]&amp;tabIEEE754[[#This Row],[Mantissa → Decimal → Hex]])</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]=0,"0x0000000000000000","0x"&amp;tabIEEE754[[#This Row],[Sign &amp; Exponent → Hex]]&amp;tabIEEE754[[#This Row],[Mantissa → Decimal → Hex]])</f>
         <v>0x408FFFFFFFFFFFFF</v>
       </c>
       <c r="I14" s="6">
@@ -2023,7 +2025,7 @@
         <v>1023.9999999999999</v>
       </c>
       <c r="N14" s="18" t="b">
-        <f>tabIEEE754[[#This Row],[IEE 754 → Decimal]]=tabIEEE754[[#This Row],[Decimal → IEE 754]]</f>
+        <f>tabIEEE754[[#This Row],[IEEE 754 → Decimal]]=tabIEEE754[[#This Row],[Decimal → IEEE 754]]</f>
         <v>1</v>
       </c>
     </row>
@@ -2032,31 +2034,31 @@
         <v>1024</v>
       </c>
       <c r="B15" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",INT(LOG(ABS(tabIEEE754[[#This Row],[Decimal → IEE 754]]),2)))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",INT(LOG(ABS(tabIEEE754[[#This Row],[Decimal → IEEE 754]]),2)))</f>
         <v>10</v>
       </c>
       <c r="C15" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",tabIEEE754[[#This Row],[Exponent 1st Round]]-(((ABS(A15)/(2^tabIEEE754[[#This Row],[Exponent 1st Round]])-1)*(2^52))&lt;0))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",tabIEEE754[[#This Row],[Exponent 1st Round]]-(((ABS(A15)/(2^tabIEEE754[[#This Row],[Exponent 1st Round]])-1)*(2^52))&lt;0))</f>
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",ABS(tabIEEE754[[#This Row],[Decimal → IEE 754]])/(2^tabIEEE754[[#This Row],[Exponent 2nd Round]]))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",ABS(tabIEEE754[[#This Row],[Decimal → IEEE 754]])/(2^tabIEEE754[[#This Row],[Exponent 2nd Round]]))</f>
         <v>1</v>
       </c>
       <c r="E15" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",(tabIEEE754[[#This Row],[Mantissa]]-1)*(2^52))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",(tabIEEE754[[#This Row],[Mantissa]]-1)*(2^52))</f>
         <v>0</v>
       </c>
       <c r="F15" s="3" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",DEC2HEX(1023+tabIEEE754[[#This Row],[Exponent 2nd Round]]+(2^11)*(tabIEEE754[[#This Row],[Decimal → IEE 754]]&lt;0),3))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",DEC2HEX(1023+tabIEEE754[[#This Row],[Exponent 2nd Round]]+(2^11)*(tabIEEE754[[#This Row],[Decimal → IEEE 754]]&lt;0),3))</f>
         <v>409</v>
       </c>
       <c r="G15" s="3" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",DEC2HEX(tabIEEE754[[#This Row],[Mantissa → Decimal]]/2^32,5)&amp;DEC2HEX(MOD(tabIEEE754[[#This Row],[Mantissa → Decimal]],2^32),8))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",DEC2HEX(tabIEEE754[[#This Row],[Mantissa → Decimal]]/2^32,5)&amp;DEC2HEX(MOD(tabIEEE754[[#This Row],[Mantissa → Decimal]],2^32),8))</f>
         <v>0000000000000</v>
       </c>
       <c r="H15" s="28" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]=0,"0x0000000000000000","0x"&amp;tabIEEE754[[#This Row],[Sign &amp; Exponent → Hex]]&amp;tabIEEE754[[#This Row],[Mantissa → Decimal → Hex]])</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]=0,"0x0000000000000000","0x"&amp;tabIEEE754[[#This Row],[Sign &amp; Exponent → Hex]]&amp;tabIEEE754[[#This Row],[Mantissa → Decimal → Hex]])</f>
         <v>0x4090000000000000</v>
       </c>
       <c r="I15" s="6">
@@ -2080,7 +2082,7 @@
         <v>1024</v>
       </c>
       <c r="N15" s="18" t="b">
-        <f>tabIEEE754[[#This Row],[IEE 754 → Decimal]]=tabIEEE754[[#This Row],[Decimal → IEE 754]]</f>
+        <f>tabIEEE754[[#This Row],[IEEE 754 → Decimal]]=tabIEEE754[[#This Row],[Decimal → IEEE 754]]</f>
         <v>1</v>
       </c>
     </row>
@@ -2090,31 +2092,31 @@
         <v>4095.9999999999995</v>
       </c>
       <c r="B16" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",INT(LOG(ABS(tabIEEE754[[#This Row],[Decimal → IEE 754]]),2)))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",INT(LOG(ABS(tabIEEE754[[#This Row],[Decimal → IEEE 754]]),2)))</f>
         <v>12</v>
       </c>
       <c r="C16" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",tabIEEE754[[#This Row],[Exponent 1st Round]]-(((ABS(A16)/(2^tabIEEE754[[#This Row],[Exponent 1st Round]])-1)*(2^52))&lt;0))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",tabIEEE754[[#This Row],[Exponent 1st Round]]-(((ABS(A16)/(2^tabIEEE754[[#This Row],[Exponent 1st Round]])-1)*(2^52))&lt;0))</f>
         <v>11</v>
       </c>
       <c r="D16" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",ABS(tabIEEE754[[#This Row],[Decimal → IEE 754]])/(2^tabIEEE754[[#This Row],[Exponent 2nd Round]]))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",ABS(tabIEEE754[[#This Row],[Decimal → IEEE 754]])/(2^tabIEEE754[[#This Row],[Exponent 2nd Round]]))</f>
         <v>1.9999999999999998</v>
       </c>
       <c r="E16" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",(tabIEEE754[[#This Row],[Mantissa]]-1)*(2^52))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",(tabIEEE754[[#This Row],[Mantissa]]-1)*(2^52))</f>
         <v>4503599627370495</v>
       </c>
       <c r="F16" s="3" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",DEC2HEX(1023+tabIEEE754[[#This Row],[Exponent 2nd Round]]+(2^11)*(tabIEEE754[[#This Row],[Decimal → IEE 754]]&lt;0),3))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",DEC2HEX(1023+tabIEEE754[[#This Row],[Exponent 2nd Round]]+(2^11)*(tabIEEE754[[#This Row],[Decimal → IEEE 754]]&lt;0),3))</f>
         <v>40A</v>
       </c>
       <c r="G16" s="3" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",DEC2HEX(tabIEEE754[[#This Row],[Mantissa → Decimal]]/2^32,5)&amp;DEC2HEX(MOD(tabIEEE754[[#This Row],[Mantissa → Decimal]],2^32),8))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",DEC2HEX(tabIEEE754[[#This Row],[Mantissa → Decimal]]/2^32,5)&amp;DEC2HEX(MOD(tabIEEE754[[#This Row],[Mantissa → Decimal]],2^32),8))</f>
         <v>FFFFFFFFFFFFF</v>
       </c>
       <c r="H16" s="29" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]=0,"0x0000000000000000","0x"&amp;tabIEEE754[[#This Row],[Sign &amp; Exponent → Hex]]&amp;tabIEEE754[[#This Row],[Mantissa → Decimal → Hex]])</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]=0,"0x0000000000000000","0x"&amp;tabIEEE754[[#This Row],[Sign &amp; Exponent → Hex]]&amp;tabIEEE754[[#This Row],[Mantissa → Decimal → Hex]])</f>
         <v>0x40AFFFFFFFFFFFFF</v>
       </c>
       <c r="I16" s="6">
@@ -2138,7 +2140,7 @@
         <v>4095.9999999999995</v>
       </c>
       <c r="N16" s="18" t="b">
-        <f>tabIEEE754[[#This Row],[IEE 754 → Decimal]]=tabIEEE754[[#This Row],[Decimal → IEE 754]]</f>
+        <f>tabIEEE754[[#This Row],[IEEE 754 → Decimal]]=tabIEEE754[[#This Row],[Decimal → IEEE 754]]</f>
         <v>1</v>
       </c>
     </row>
@@ -2148,31 +2150,31 @@
         <v>4096</v>
       </c>
       <c r="B17" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",INT(LOG(ABS(tabIEEE754[[#This Row],[Decimal → IEE 754]]),2)))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",INT(LOG(ABS(tabIEEE754[[#This Row],[Decimal → IEEE 754]]),2)))</f>
         <v>12</v>
       </c>
       <c r="C17" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",tabIEEE754[[#This Row],[Exponent 1st Round]]-(((ABS(A17)/(2^tabIEEE754[[#This Row],[Exponent 1st Round]])-1)*(2^52))&lt;0))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",tabIEEE754[[#This Row],[Exponent 1st Round]]-(((ABS(A17)/(2^tabIEEE754[[#This Row],[Exponent 1st Round]])-1)*(2^52))&lt;0))</f>
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",ABS(tabIEEE754[[#This Row],[Decimal → IEE 754]])/(2^tabIEEE754[[#This Row],[Exponent 2nd Round]]))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",ABS(tabIEEE754[[#This Row],[Decimal → IEEE 754]])/(2^tabIEEE754[[#This Row],[Exponent 2nd Round]]))</f>
         <v>1</v>
       </c>
       <c r="E17" s="3">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",(tabIEEE754[[#This Row],[Mantissa]]-1)*(2^52))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",(tabIEEE754[[#This Row],[Mantissa]]-1)*(2^52))</f>
         <v>0</v>
       </c>
       <c r="F17" s="3" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",DEC2HEX(1023+tabIEEE754[[#This Row],[Exponent 2nd Round]]+(2^11)*(tabIEEE754[[#This Row],[Decimal → IEE 754]]&lt;0),3))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",DEC2HEX(1023+tabIEEE754[[#This Row],[Exponent 2nd Round]]+(2^11)*(tabIEEE754[[#This Row],[Decimal → IEEE 754]]&lt;0),3))</f>
         <v>40B</v>
       </c>
       <c r="G17" s="3" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",DEC2HEX(tabIEEE754[[#This Row],[Mantissa → Decimal]]/2^32,5)&amp;DEC2HEX(MOD(tabIEEE754[[#This Row],[Mantissa → Decimal]],2^32),8))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",DEC2HEX(tabIEEE754[[#This Row],[Mantissa → Decimal]]/2^32,5)&amp;DEC2HEX(MOD(tabIEEE754[[#This Row],[Mantissa → Decimal]],2^32),8))</f>
         <v>0000000000000</v>
       </c>
       <c r="H17" s="29" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]=0,"0x0000000000000000","0x"&amp;tabIEEE754[[#This Row],[Sign &amp; Exponent → Hex]]&amp;tabIEEE754[[#This Row],[Mantissa → Decimal → Hex]])</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]=0,"0x0000000000000000","0x"&amp;tabIEEE754[[#This Row],[Sign &amp; Exponent → Hex]]&amp;tabIEEE754[[#This Row],[Mantissa → Decimal → Hex]])</f>
         <v>0x40B0000000000000</v>
       </c>
       <c r="I17" s="6">
@@ -2196,7 +2198,7 @@
         <v>4096</v>
       </c>
       <c r="N17" s="18" t="b">
-        <f>tabIEEE754[[#This Row],[IEE 754 → Decimal]]=tabIEEE754[[#This Row],[Decimal → IEE 754]]</f>
+        <f>tabIEEE754[[#This Row],[IEEE 754 → Decimal]]=tabIEEE754[[#This Row],[Decimal → IEEE 754]]</f>
         <v>1</v>
       </c>
     </row>
@@ -2205,31 +2207,31 @@
         <v>1E-8</v>
       </c>
       <c r="B18" s="5">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",INT(LOG(ABS(tabIEEE754[[#This Row],[Decimal → IEE 754]]),2)))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",INT(LOG(ABS(tabIEEE754[[#This Row],[Decimal → IEEE 754]]),2)))</f>
         <v>-27</v>
       </c>
       <c r="C18" s="5">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",tabIEEE754[[#This Row],[Exponent 1st Round]]-(((ABS(A18)/(2^tabIEEE754[[#This Row],[Exponent 1st Round]])-1)*(2^52))&lt;0))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",tabIEEE754[[#This Row],[Exponent 1st Round]]-(((ABS(A18)/(2^tabIEEE754[[#This Row],[Exponent 1st Round]])-1)*(2^52))&lt;0))</f>
         <v>-27</v>
       </c>
       <c r="D18" s="5">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",ABS(tabIEEE754[[#This Row],[Decimal → IEE 754]])/(2^tabIEEE754[[#This Row],[Exponent 2nd Round]]))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",ABS(tabIEEE754[[#This Row],[Decimal → IEEE 754]])/(2^tabIEEE754[[#This Row],[Exponent 2nd Round]]))</f>
         <v>1.34217728</v>
       </c>
       <c r="E18" s="5">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",(tabIEEE754[[#This Row],[Mantissa]]-1)*(2^52))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",(tabIEEE754[[#This Row],[Mantissa]]-1)*(2^52))</f>
         <v>1541029470702650</v>
       </c>
       <c r="F18" s="5" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",DEC2HEX(1023+tabIEEE754[[#This Row],[Exponent 2nd Round]]+(2^11)*(tabIEEE754[[#This Row],[Decimal → IEE 754]]&lt;0),3))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",DEC2HEX(1023+tabIEEE754[[#This Row],[Exponent 2nd Round]]+(2^11)*(tabIEEE754[[#This Row],[Decimal → IEEE 754]]&lt;0),3))</f>
         <v>3E4</v>
       </c>
       <c r="G18" s="5" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",DEC2HEX(tabIEEE754[[#This Row],[Mantissa → Decimal]]/2^32,5)&amp;DEC2HEX(MOD(tabIEEE754[[#This Row],[Mantissa → Decimal]],2^32),8))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",DEC2HEX(tabIEEE754[[#This Row],[Mantissa → Decimal]]/2^32,5)&amp;DEC2HEX(MOD(tabIEEE754[[#This Row],[Mantissa → Decimal]],2^32),8))</f>
         <v>5798EE2308C3A</v>
       </c>
       <c r="H18" s="30" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]=0,"0x0000000000000000","0x"&amp;tabIEEE754[[#This Row],[Sign &amp; Exponent → Hex]]&amp;tabIEEE754[[#This Row],[Mantissa → Decimal → Hex]])</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]=0,"0x0000000000000000","0x"&amp;tabIEEE754[[#This Row],[Sign &amp; Exponent → Hex]]&amp;tabIEEE754[[#This Row],[Mantissa → Decimal → Hex]])</f>
         <v>0x3E45798EE2308C3A</v>
       </c>
       <c r="I18" s="6">
@@ -2253,7 +2255,7 @@
         <v>1E-8</v>
       </c>
       <c r="N18" s="18" t="b">
-        <f>tabIEEE754[[#This Row],[IEE 754 → Decimal]]=tabIEEE754[[#This Row],[Decimal → IEE 754]]</f>
+        <f>tabIEEE754[[#This Row],[IEEE 754 → Decimal]]=tabIEEE754[[#This Row],[Decimal → IEEE 754]]</f>
         <v>1</v>
       </c>
     </row>
@@ -2262,31 +2264,31 @@
         <v>-2.2250738585072098E-308</v>
       </c>
       <c r="B19" s="5">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",INT(LOG(ABS(tabIEEE754[[#This Row],[Decimal → IEE 754]]),2)))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",INT(LOG(ABS(tabIEEE754[[#This Row],[Decimal → IEEE 754]]),2)))</f>
         <v>-1022</v>
       </c>
       <c r="C19" s="5">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",tabIEEE754[[#This Row],[Exponent 1st Round]]-(((ABS(A19)/(2^tabIEEE754[[#This Row],[Exponent 1st Round]])-1)*(2^52))&lt;0))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",tabIEEE754[[#This Row],[Exponent 1st Round]]-(((ABS(A19)/(2^tabIEEE754[[#This Row],[Exponent 1st Round]])-1)*(2^52))&lt;0))</f>
         <v>-1022</v>
       </c>
       <c r="D19" s="5">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",ABS(tabIEEE754[[#This Row],[Decimal → IEE 754]])/(2^tabIEEE754[[#This Row],[Exponent 2nd Round]]))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",ABS(tabIEEE754[[#This Row],[Decimal → IEEE 754]])/(2^tabIEEE754[[#This Row],[Exponent 2nd Round]]))</f>
         <v>1.0000000000000038</v>
       </c>
       <c r="E19" s="5">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",(tabIEEE754[[#This Row],[Mantissa]]-1)*(2^52))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",(tabIEEE754[[#This Row],[Mantissa]]-1)*(2^52))</f>
         <v>17</v>
       </c>
       <c r="F19" s="5" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",DEC2HEX(1023+tabIEEE754[[#This Row],[Exponent 2nd Round]]+(2^11)*(tabIEEE754[[#This Row],[Decimal → IEE 754]]&lt;0),3))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",DEC2HEX(1023+tabIEEE754[[#This Row],[Exponent 2nd Round]]+(2^11)*(tabIEEE754[[#This Row],[Decimal → IEEE 754]]&lt;0),3))</f>
         <v>801</v>
       </c>
       <c r="G19" s="5" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",DEC2HEX(tabIEEE754[[#This Row],[Mantissa → Decimal]]/2^32,5)&amp;DEC2HEX(MOD(tabIEEE754[[#This Row],[Mantissa → Decimal]],2^32),8))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",DEC2HEX(tabIEEE754[[#This Row],[Mantissa → Decimal]]/2^32,5)&amp;DEC2HEX(MOD(tabIEEE754[[#This Row],[Mantissa → Decimal]],2^32),8))</f>
         <v>0000000000011</v>
       </c>
       <c r="H19" s="30" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]=0,"0x0000000000000000","0x"&amp;tabIEEE754[[#This Row],[Sign &amp; Exponent → Hex]]&amp;tabIEEE754[[#This Row],[Mantissa → Decimal → Hex]])</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]=0,"0x0000000000000000","0x"&amp;tabIEEE754[[#This Row],[Sign &amp; Exponent → Hex]]&amp;tabIEEE754[[#This Row],[Mantissa → Decimal → Hex]])</f>
         <v>0x8010000000000011</v>
       </c>
       <c r="I19" s="6">
@@ -2310,7 +2312,7 @@
         <v>-2.2250738585072098E-308</v>
       </c>
       <c r="N19" s="18" t="b">
-        <f>tabIEEE754[[#This Row],[IEE 754 → Decimal]]=tabIEEE754[[#This Row],[Decimal → IEE 754]]</f>
+        <f>tabIEEE754[[#This Row],[IEEE 754 → Decimal]]=tabIEEE754[[#This Row],[Decimal → IEEE 754]]</f>
         <v>1</v>
       </c>
     </row>
@@ -2320,31 +2322,31 @@
         <v>2.2250738585072098E-308</v>
       </c>
       <c r="B20" s="5">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",INT(LOG(ABS(tabIEEE754[[#This Row],[Decimal → IEE 754]]),2)))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",INT(LOG(ABS(tabIEEE754[[#This Row],[Decimal → IEEE 754]]),2)))</f>
         <v>-1022</v>
       </c>
       <c r="C20" s="5">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",tabIEEE754[[#This Row],[Exponent 1st Round]]-(((ABS(A20)/(2^tabIEEE754[[#This Row],[Exponent 1st Round]])-1)*(2^52))&lt;0))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",tabIEEE754[[#This Row],[Exponent 1st Round]]-(((ABS(A20)/(2^tabIEEE754[[#This Row],[Exponent 1st Round]])-1)*(2^52))&lt;0))</f>
         <v>-1022</v>
       </c>
       <c r="D20" s="5">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",ABS(tabIEEE754[[#This Row],[Decimal → IEE 754]])/(2^tabIEEE754[[#This Row],[Exponent 2nd Round]]))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",ABS(tabIEEE754[[#This Row],[Decimal → IEEE 754]])/(2^tabIEEE754[[#This Row],[Exponent 2nd Round]]))</f>
         <v>1.0000000000000038</v>
       </c>
       <c r="E20" s="5">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",(tabIEEE754[[#This Row],[Mantissa]]-1)*(2^52))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",(tabIEEE754[[#This Row],[Mantissa]]-1)*(2^52))</f>
         <v>17</v>
       </c>
       <c r="F20" s="5" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",DEC2HEX(1023+tabIEEE754[[#This Row],[Exponent 2nd Round]]+(2^11)*(tabIEEE754[[#This Row],[Decimal → IEE 754]]&lt;0),3))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",DEC2HEX(1023+tabIEEE754[[#This Row],[Exponent 2nd Round]]+(2^11)*(tabIEEE754[[#This Row],[Decimal → IEEE 754]]&lt;0),3))</f>
         <v>001</v>
       </c>
       <c r="G20" s="5" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",DEC2HEX(tabIEEE754[[#This Row],[Mantissa → Decimal]]/2^32,5)&amp;DEC2HEX(MOD(tabIEEE754[[#This Row],[Mantissa → Decimal]],2^32),8))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",DEC2HEX(tabIEEE754[[#This Row],[Mantissa → Decimal]]/2^32,5)&amp;DEC2HEX(MOD(tabIEEE754[[#This Row],[Mantissa → Decimal]],2^32),8))</f>
         <v>0000000000011</v>
       </c>
       <c r="H20" s="30" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]=0,"0x0000000000000000","0x"&amp;tabIEEE754[[#This Row],[Sign &amp; Exponent → Hex]]&amp;tabIEEE754[[#This Row],[Mantissa → Decimal → Hex]])</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]=0,"0x0000000000000000","0x"&amp;tabIEEE754[[#This Row],[Sign &amp; Exponent → Hex]]&amp;tabIEEE754[[#This Row],[Mantissa → Decimal → Hex]])</f>
         <v>0x0010000000000011</v>
       </c>
       <c r="I20" s="6">
@@ -2368,38 +2370,38 @@
         <v>2.2250738585072098E-308</v>
       </c>
       <c r="N20" s="18" t="b">
-        <f>tabIEEE754[[#This Row],[IEE 754 → Decimal]]=tabIEEE754[[#This Row],[Decimal → IEE 754]]</f>
+        <f>tabIEEE754[[#This Row],[IEEE 754 → Decimal]]=tabIEEE754[[#This Row],[Decimal → IEEE 754]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="3" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",INT(LOG(ABS(tabIEEE754[[#This Row],[Decimal → IEE 754]]),2)))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",INT(LOG(ABS(tabIEEE754[[#This Row],[Decimal → IEEE 754]]),2)))</f>
         <v/>
       </c>
       <c r="C21" s="3" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",tabIEEE754[[#This Row],[Exponent 1st Round]]-(((ABS(A21)/(2^tabIEEE754[[#This Row],[Exponent 1st Round]])-1)*(2^52))&lt;0))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",tabIEEE754[[#This Row],[Exponent 1st Round]]-(((ABS(A21)/(2^tabIEEE754[[#This Row],[Exponent 1st Round]])-1)*(2^52))&lt;0))</f>
         <v/>
       </c>
       <c r="D21" s="3" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",ABS(tabIEEE754[[#This Row],[Decimal → IEE 754]])/(2^tabIEEE754[[#This Row],[Exponent 2nd Round]]))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",ABS(tabIEEE754[[#This Row],[Decimal → IEEE 754]])/(2^tabIEEE754[[#This Row],[Exponent 2nd Round]]))</f>
         <v/>
       </c>
       <c r="E21" s="3" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",(tabIEEE754[[#This Row],[Mantissa]]-1)*(2^52))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",(tabIEEE754[[#This Row],[Mantissa]]-1)*(2^52))</f>
         <v/>
       </c>
       <c r="F21" s="4" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",DEC2HEX(1023+tabIEEE754[[#This Row],[Exponent 2nd Round]]+(2^11)*(tabIEEE754[[#This Row],[Decimal → IEE 754]]&lt;0),3))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",DEC2HEX(1023+tabIEEE754[[#This Row],[Exponent 2nd Round]]+(2^11)*(tabIEEE754[[#This Row],[Decimal → IEEE 754]]&lt;0),3))</f>
         <v/>
       </c>
       <c r="G21" s="4" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",DEC2HEX(tabIEEE754[[#This Row],[Mantissa → Decimal]]/2^32,5)&amp;DEC2HEX(MOD(tabIEEE754[[#This Row],[Mantissa → Decimal]],2^32),8))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",DEC2HEX(tabIEEE754[[#This Row],[Mantissa → Decimal]]/2^32,5)&amp;DEC2HEX(MOD(tabIEEE754[[#This Row],[Mantissa → Decimal]],2^32),8))</f>
         <v/>
       </c>
       <c r="H21" s="31" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]=0,"0x0000000000000000","0x"&amp;tabIEEE754[[#This Row],[Sign &amp; Exponent → Hex]]&amp;tabIEEE754[[#This Row],[Mantissa → Decimal → Hex]])</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]=0,"0x0000000000000000","0x"&amp;tabIEEE754[[#This Row],[Sign &amp; Exponent → Hex]]&amp;tabIEEE754[[#This Row],[Mantissa → Decimal → Hex]])</f>
         <v>0x0000000000000000</v>
       </c>
       <c r="I21" s="7">
@@ -2423,38 +2425,38 @@
         <v>0</v>
       </c>
       <c r="N21" s="19" t="b">
-        <f>tabIEEE754[[#This Row],[IEE 754 → Decimal]]=tabIEEE754[[#This Row],[Decimal → IEE 754]]</f>
+        <f>tabIEEE754[[#This Row],[IEEE 754 → Decimal]]=tabIEEE754[[#This Row],[Decimal → IEEE 754]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="3" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",INT(LOG(ABS(tabIEEE754[[#This Row],[Decimal → IEE 754]]),2)))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",INT(LOG(ABS(tabIEEE754[[#This Row],[Decimal → IEEE 754]]),2)))</f>
         <v/>
       </c>
       <c r="C22" s="3" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",tabIEEE754[[#This Row],[Exponent 1st Round]]-(((ABS(A22)/(2^tabIEEE754[[#This Row],[Exponent 1st Round]])-1)*(2^52))&lt;0))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",tabIEEE754[[#This Row],[Exponent 1st Round]]-(((ABS(A22)/(2^tabIEEE754[[#This Row],[Exponent 1st Round]])-1)*(2^52))&lt;0))</f>
         <v/>
       </c>
       <c r="D22" s="3" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",ABS(tabIEEE754[[#This Row],[Decimal → IEE 754]])/(2^tabIEEE754[[#This Row],[Exponent 2nd Round]]))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",ABS(tabIEEE754[[#This Row],[Decimal → IEEE 754]])/(2^tabIEEE754[[#This Row],[Exponent 2nd Round]]))</f>
         <v/>
       </c>
       <c r="E22" s="3" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",(tabIEEE754[[#This Row],[Mantissa]]-1)*(2^52))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",(tabIEEE754[[#This Row],[Mantissa]]-1)*(2^52))</f>
         <v/>
       </c>
       <c r="F22" s="4" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",DEC2HEX(1023+tabIEEE754[[#This Row],[Exponent 2nd Round]]+(2^11)*(tabIEEE754[[#This Row],[Decimal → IEE 754]]&lt;0),3))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",DEC2HEX(1023+tabIEEE754[[#This Row],[Exponent 2nd Round]]+(2^11)*(tabIEEE754[[#This Row],[Decimal → IEEE 754]]&lt;0),3))</f>
         <v/>
       </c>
       <c r="G22" s="4" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",DEC2HEX(tabIEEE754[[#This Row],[Mantissa → Decimal]]/2^32,5)&amp;DEC2HEX(MOD(tabIEEE754[[#This Row],[Mantissa → Decimal]],2^32),8))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",DEC2HEX(tabIEEE754[[#This Row],[Mantissa → Decimal]]/2^32,5)&amp;DEC2HEX(MOD(tabIEEE754[[#This Row],[Mantissa → Decimal]],2^32),8))</f>
         <v/>
       </c>
       <c r="H22" s="31" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]=0,"0x0000000000000000","0x"&amp;tabIEEE754[[#This Row],[Sign &amp; Exponent → Hex]]&amp;tabIEEE754[[#This Row],[Mantissa → Decimal → Hex]])</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]=0,"0x0000000000000000","0x"&amp;tabIEEE754[[#This Row],[Sign &amp; Exponent → Hex]]&amp;tabIEEE754[[#This Row],[Mantissa → Decimal → Hex]])</f>
         <v>0x0000000000000000</v>
       </c>
       <c r="I22" s="7">
@@ -2478,38 +2480,38 @@
         <v>0</v>
       </c>
       <c r="N22" s="19" t="b">
-        <f>tabIEEE754[[#This Row],[IEE 754 → Decimal]]=tabIEEE754[[#This Row],[Decimal → IEE 754]]</f>
+        <f>tabIEEE754[[#This Row],[IEEE 754 → Decimal]]=tabIEEE754[[#This Row],[Decimal → IEEE 754]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="5" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",INT(LOG(ABS(tabIEEE754[[#This Row],[Decimal → IEE 754]]),2)))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",INT(LOG(ABS(tabIEEE754[[#This Row],[Decimal → IEEE 754]]),2)))</f>
         <v/>
       </c>
       <c r="C23" s="5" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",tabIEEE754[[#This Row],[Exponent 1st Round]]-(((ABS(A23)/(2^tabIEEE754[[#This Row],[Exponent 1st Round]])-1)*(2^52))&lt;0))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",tabIEEE754[[#This Row],[Exponent 1st Round]]-(((ABS(A23)/(2^tabIEEE754[[#This Row],[Exponent 1st Round]])-1)*(2^52))&lt;0))</f>
         <v/>
       </c>
       <c r="D23" s="5" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",ABS(tabIEEE754[[#This Row],[Decimal → IEE 754]])/(2^tabIEEE754[[#This Row],[Exponent 2nd Round]]))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",ABS(tabIEEE754[[#This Row],[Decimal → IEEE 754]])/(2^tabIEEE754[[#This Row],[Exponent 2nd Round]]))</f>
         <v/>
       </c>
       <c r="E23" s="5" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",(tabIEEE754[[#This Row],[Mantissa]]-1)*(2^52))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",(tabIEEE754[[#This Row],[Mantissa]]-1)*(2^52))</f>
         <v/>
       </c>
       <c r="F23" s="6" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",DEC2HEX(1023+tabIEEE754[[#This Row],[Exponent 2nd Round]]+(2^11)*(tabIEEE754[[#This Row],[Decimal → IEE 754]]&lt;0),3))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",DEC2HEX(1023+tabIEEE754[[#This Row],[Exponent 2nd Round]]+(2^11)*(tabIEEE754[[#This Row],[Decimal → IEEE 754]]&lt;0),3))</f>
         <v/>
       </c>
       <c r="G23" s="6" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]="","",DEC2HEX(tabIEEE754[[#This Row],[Mantissa → Decimal]]/2^32,5)&amp;DEC2HEX(MOD(tabIEEE754[[#This Row],[Mantissa → Decimal]],2^32),8))</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]="","",DEC2HEX(tabIEEE754[[#This Row],[Mantissa → Decimal]]/2^32,5)&amp;DEC2HEX(MOD(tabIEEE754[[#This Row],[Mantissa → Decimal]],2^32),8))</f>
         <v/>
       </c>
       <c r="H23" s="30" t="str">
-        <f>IF(tabIEEE754[[#This Row],[Decimal → IEE 754]]=0,"0x0000000000000000","0x"&amp;tabIEEE754[[#This Row],[Sign &amp; Exponent → Hex]]&amp;tabIEEE754[[#This Row],[Mantissa → Decimal → Hex]])</f>
+        <f>IF(tabIEEE754[[#This Row],[Decimal → IEEE 754]]=0,"0x0000000000000000","0x"&amp;tabIEEE754[[#This Row],[Sign &amp; Exponent → Hex]]&amp;tabIEEE754[[#This Row],[Mantissa → Decimal → Hex]])</f>
         <v>0x0000000000000000</v>
       </c>
       <c r="I23" s="6">
@@ -2533,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="N23" s="19" t="b">
-        <f>tabIEEE754[[#This Row],[IEE 754 → Decimal]]=tabIEEE754[[#This Row],[Decimal → IEE 754]]</f>
+        <f>tabIEEE754[[#This Row],[IEEE 754 → Decimal]]=tabIEEE754[[#This Row],[Decimal → IEEE 754]]</f>
         <v>1</v>
       </c>
     </row>
